--- a/EarthquakeDonationSiteDataset.xlsx
+++ b/EarthquakeDonationSiteDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tinao\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E33EF6CF-A72C-4FED-88BA-18A37C99BDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F002F7-667B-48DC-B116-3DE8F19342AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F153D02E-1DA8-443A-90CC-44E031F147C5}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="106">
   <si>
     <t>Organization</t>
   </si>
@@ -141,6 +139,219 @@
   </si>
   <si>
     <t>Relief International</t>
+  </si>
+  <si>
+    <t>Goonj India</t>
+  </si>
+  <si>
+    <t>Oxfam India</t>
+  </si>
+  <si>
+    <t>UNICEF India</t>
+  </si>
+  <si>
+    <t>ActionAid India</t>
+  </si>
+  <si>
+    <t>CARE India</t>
+  </si>
+  <si>
+    <t>Save the Children India</t>
+  </si>
+  <si>
+    <t>World Vision India</t>
+  </si>
+  <si>
+    <t>Habitat for Humanity India</t>
+  </si>
+  <si>
+    <t>GlobalGiving India</t>
+  </si>
+  <si>
+    <t>Catholic Relief Services India</t>
+  </si>
+  <si>
+    <t>GiveIndia</t>
+  </si>
+  <si>
+    <t>Plan India</t>
+  </si>
+  <si>
+    <t>HelpAge India</t>
+  </si>
+  <si>
+    <t>Action Against Hunger India</t>
+  </si>
+  <si>
+    <t>Mercy Corps India</t>
+  </si>
+  <si>
+    <t>WaterAid India</t>
+  </si>
+  <si>
+    <t>Doctors Without Borders India</t>
+  </si>
+  <si>
+    <t>ChildFund India</t>
+  </si>
+  <si>
+    <t>Samaritan's Purse India</t>
+  </si>
+  <si>
+    <t>Habitat for Humanity India Trust</t>
+  </si>
+  <si>
+    <t>Action on Disability and Development India</t>
+  </si>
+  <si>
+    <t>Room to Read India</t>
+  </si>
+  <si>
+    <t>Give2Asia India</t>
+  </si>
+  <si>
+    <t>Smile Foundation India</t>
+  </si>
+  <si>
+    <t>UNHCR India</t>
+  </si>
+  <si>
+    <t>World Animal Protection India</t>
+  </si>
+  <si>
+    <t>International Medical Corps India</t>
+  </si>
+  <si>
+    <t>Action for India's Development</t>
+  </si>
+  <si>
+    <t>The Akshaya Patra Foundation India</t>
+  </si>
+  <si>
+    <t>Ashoka India</t>
+  </si>
+  <si>
+    <t>Centre for Social Research India</t>
+  </si>
+  <si>
+    <t>UNICEF USA</t>
+  </si>
+  <si>
+    <t>Oxfam America</t>
+  </si>
+  <si>
+    <t>CARE USA</t>
+  </si>
+  <si>
+    <t>World Food Program USA</t>
+  </si>
+  <si>
+    <t>Doctors Without Borders USA</t>
+  </si>
+  <si>
+    <t>Team Rubicon USA</t>
+  </si>
+  <si>
+    <t>ADRA International</t>
+  </si>
+  <si>
+    <t>ShelterBox USA</t>
+  </si>
+  <si>
+    <t>Plan International USA</t>
+  </si>
+  <si>
+    <t>Medair USA</t>
+  </si>
+  <si>
+    <t>America's VetDogs</t>
+  </si>
+  <si>
+    <t>World Animal Protection US</t>
+  </si>
+  <si>
+    <t>ASPCA</t>
+  </si>
+  <si>
+    <t>The Humane Society of the United States</t>
+  </si>
+  <si>
+    <t>Best Friends Animal Society</t>
+  </si>
+  <si>
+    <t>The Nature Conservancy</t>
+  </si>
+  <si>
+    <t>American Red Cross</t>
+  </si>
+  <si>
+    <t>The Salvation Army</t>
+  </si>
+  <si>
+    <t>Direct Relief</t>
+  </si>
+  <si>
+    <t>Water Mission</t>
+  </si>
+  <si>
+    <t>Medecins Sans Frontieres</t>
+  </si>
+  <si>
+    <t>Islamic Relief</t>
+  </si>
+  <si>
+    <t>ADRA</t>
+  </si>
+  <si>
+    <t>Islamic Relief Worldwide</t>
+  </si>
+  <si>
+    <t>Handicap International</t>
+  </si>
+  <si>
+    <t>Oxfam GB</t>
+  </si>
+  <si>
+    <t>Doctors Without Borders/Medecins Sans Frontieres (MSF)</t>
+  </si>
+  <si>
+    <t>CARE International</t>
+  </si>
+  <si>
+    <t>Action Against Hunger</t>
+  </si>
+  <si>
+    <t>Habitat for Humanity International</t>
+  </si>
+  <si>
+    <t>ActionAid International</t>
+  </si>
+  <si>
+    <t>Norwegian Refugee Council</t>
+  </si>
+  <si>
+    <t>Danish Refugee Council</t>
+  </si>
+  <si>
+    <t>ChildFund International</t>
+  </si>
+  <si>
+    <t>Tearfund</t>
+  </si>
+  <si>
+    <t>Hand in Hand International</t>
+  </si>
+  <si>
+    <t>Relief4Africa</t>
+  </si>
+  <si>
+    <t>World Neighbors</t>
+  </si>
+  <si>
+    <t>Handicap International Federation</t>
+  </si>
+  <si>
+    <t>CBM International</t>
   </si>
 </sst>
 </file>
@@ -492,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612C0EB9-8DB3-4F2A-A4C0-BC0E6136706D}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -524,7 +735,7 @@
         <v>34.429299999999998</v>
       </c>
       <c r="C3">
-        <v>119.7722</v>
+        <v>-119.7722</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -535,7 +746,7 @@
         <v>47.606200000000001</v>
       </c>
       <c r="C4">
-        <v>122.3321</v>
+        <v>-122.3321</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -546,7 +757,7 @@
         <v>40.712800000000001</v>
       </c>
       <c r="C5">
-        <v>74.006</v>
+        <v>-74.006</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -557,7 +768,7 @@
         <v>51.454500000000003</v>
       </c>
       <c r="C6">
-        <v>2.5878999999999999</v>
+        <v>-2.5878999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -568,7 +779,7 @@
         <v>41.878100000000003</v>
       </c>
       <c r="C7">
-        <v>87.629800000000003</v>
+        <v>-87.629800000000003</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -579,7 +790,7 @@
         <v>33.748899999999999</v>
       </c>
       <c r="C8">
-        <v>84.39</v>
+        <v>-84.39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -590,7 +801,7 @@
         <v>38.907200000000003</v>
       </c>
       <c r="C9">
-        <v>77.036900000000003</v>
+        <v>-77.036900000000003</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -601,7 +812,7 @@
         <v>39.290399999999998</v>
       </c>
       <c r="C10">
-        <v>76.612200000000001</v>
+        <v>-76.612200000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -612,7 +823,7 @@
         <v>33.749000000000002</v>
       </c>
       <c r="C11">
-        <v>84.388000000000005</v>
+        <v>-84.388000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -623,7 +834,7 @@
         <v>45.523099999999999</v>
       </c>
       <c r="C12">
-        <v>122.6765</v>
+        <v>-122.6765</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -645,7 +856,7 @@
         <v>34.052199999999999</v>
       </c>
       <c r="C14">
-        <v>118.2437</v>
+        <v>-118.2437</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -678,7 +889,7 @@
         <v>42.358400000000003</v>
       </c>
       <c r="C18">
-        <v>71.059799999999996</v>
+        <v>-71.059799999999996</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -689,7 +900,7 @@
         <v>36.852899999999998</v>
       </c>
       <c r="C19">
-        <v>75.977999999999994</v>
+        <v>-75.977999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -700,7 +911,7 @@
         <v>38.907200000000003</v>
       </c>
       <c r="C20">
-        <v>77.036900000000003</v>
+        <v>-77.036900000000003</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -711,7 +922,7 @@
         <v>37.208300000000001</v>
       </c>
       <c r="C21">
-        <v>93.292299999999997</v>
+        <v>-93.292299999999997</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -722,7 +933,7 @@
         <v>41.053400000000003</v>
       </c>
       <c r="C22">
-        <v>73.538700000000006</v>
+        <v>-73.538700000000006</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -733,7 +944,7 @@
         <v>34.052199999999999</v>
       </c>
       <c r="C23">
-        <v>118.2437</v>
+        <v>-118.2437</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -744,7 +955,7 @@
         <v>38.907200000000003</v>
       </c>
       <c r="C24">
-        <v>77.036900000000003</v>
+        <v>-77.036900000000003</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -755,7 +966,7 @@
         <v>38.912100000000002</v>
       </c>
       <c r="C25">
-        <v>77.022999999999996</v>
+        <v>-77.022999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -766,7 +977,7 @@
         <v>36.130099999999999</v>
       </c>
       <c r="C26">
-        <v>80.254900000000006</v>
+        <v>-80.254900000000006</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -777,7 +988,7 @@
         <v>39.114100000000001</v>
       </c>
       <c r="C27">
-        <v>94.627499999999998</v>
+        <v>-94.627499999999998</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -788,7 +999,7 @@
         <v>40.712800000000001</v>
       </c>
       <c r="C28">
-        <v>74.006</v>
+        <v>-74.006</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -799,7 +1010,7 @@
         <v>33.4255</v>
       </c>
       <c r="C29">
-        <v>111.94</v>
+        <v>-111.94</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -810,7 +1021,7 @@
         <v>39.103099999999998</v>
       </c>
       <c r="C30">
-        <v>84.512</v>
+        <v>-84.512</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -821,7 +1032,7 @@
         <v>43.078699999999998</v>
       </c>
       <c r="C31">
-        <v>85.580200000000005</v>
+        <v>-85.580200000000005</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -843,7 +1054,7 @@
         <v>51.509900000000002</v>
       </c>
       <c r="C33">
-        <v>0.11799999999999999</v>
+        <v>-0.11799999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -865,7 +1076,1646 @@
         <v>34.052199999999999</v>
       </c>
       <c r="C35">
-        <v>118.2437</v>
+        <v>-118.2437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>28.583300000000001</v>
+      </c>
+      <c r="C36">
+        <v>77.216700000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>28.6129</v>
+      </c>
+      <c r="C37">
+        <v>77.229500000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>28.613900000000001</v>
+      </c>
+      <c r="C38">
+        <v>77.209000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>28.541799999999999</v>
+      </c>
+      <c r="C39">
+        <v>77.210700000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>28.627099999999999</v>
+      </c>
+      <c r="C40">
+        <v>77.210999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>28.625299999999999</v>
+      </c>
+      <c r="C41">
+        <v>77.215699999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>28.547599999999999</v>
+      </c>
+      <c r="C42">
+        <v>77.275700000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>12.9709</v>
+      </c>
+      <c r="C43">
+        <v>77.641599999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>28.521799999999999</v>
+      </c>
+      <c r="C44">
+        <v>77.206000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>28.585000000000001</v>
+      </c>
+      <c r="C45">
+        <v>77.174499999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>28.622299999999999</v>
+      </c>
+      <c r="C46">
+        <v>77.218100000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>28.6096</v>
+      </c>
+      <c r="C47">
+        <v>77.224999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>28.558800000000002</v>
+      </c>
+      <c r="C48">
+        <v>77.221699999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>28.613900000000001</v>
+      </c>
+      <c r="C49">
+        <v>77.209000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>28.632200000000001</v>
+      </c>
+      <c r="C50">
+        <v>77.219800000000006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>28.567699999999999</v>
+      </c>
+      <c r="C51">
+        <v>77.227599999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>28.564299999999999</v>
+      </c>
+      <c r="C52">
+        <v>77.171400000000006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>28.579699999999999</v>
+      </c>
+      <c r="C53">
+        <v>77.239999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>28.603899999999999</v>
+      </c>
+      <c r="C54">
+        <v>77.173400000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>28.628799999999998</v>
+      </c>
+      <c r="C55">
+        <v>77.211500000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>28.563199999999998</v>
+      </c>
+      <c r="C56">
+        <v>77.252600000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>28.514900000000001</v>
+      </c>
+      <c r="C57">
+        <v>77.201499999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58">
+        <v>28.626200000000001</v>
+      </c>
+      <c r="C58">
+        <v>77.214799999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>28.569600000000001</v>
+      </c>
+      <c r="C59">
+        <v>77.189300000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60">
+        <v>28.5945</v>
+      </c>
+      <c r="C60">
+        <v>77.230800000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61">
+        <v>28.548500000000001</v>
+      </c>
+      <c r="C61">
+        <v>77.220699999999994</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <v>28.595600000000001</v>
+      </c>
+      <c r="C62">
+        <v>77.211799999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63">
+        <v>28.573399999999999</v>
+      </c>
+      <c r="C63">
+        <v>77.256200000000007</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64">
+        <v>28.613900000000001</v>
+      </c>
+      <c r="C64">
+        <v>77.209000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65">
+        <v>28.5716</v>
+      </c>
+      <c r="C65">
+        <v>77.248800000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66">
+        <v>28.5444</v>
+      </c>
+      <c r="C66">
+        <v>77.270399999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67">
+        <v>12.9772</v>
+      </c>
+      <c r="C67">
+        <v>77.578900000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68">
+        <v>28.575500000000002</v>
+      </c>
+      <c r="C68">
+        <v>77.209299999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69">
+        <v>28.613900000000001</v>
+      </c>
+      <c r="C69">
+        <v>77.209000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70">
+        <v>28.534600000000001</v>
+      </c>
+      <c r="C70">
+        <v>77.204700000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>34.429299999999998</v>
+      </c>
+      <c r="C71">
+        <v>-119.7722</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <v>47.606200000000001</v>
+      </c>
+      <c r="C72">
+        <v>-122.3321</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="C73">
+        <v>-74.006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74">
+        <v>42.360100000000003</v>
+      </c>
+      <c r="C74">
+        <v>-71.058899999999994</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="C75">
+        <v>-87.629800000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76">
+        <v>33.748899999999999</v>
+      </c>
+      <c r="C76">
+        <v>-84.39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>38.907200000000003</v>
+      </c>
+      <c r="C77">
+        <v>-77.036900000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78">
+        <v>39.290399999999998</v>
+      </c>
+      <c r="C78">
+        <v>-76.612200000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79">
+        <v>33.749000000000002</v>
+      </c>
+      <c r="C79">
+        <v>-84.388000000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80">
+        <v>45.523099999999999</v>
+      </c>
+      <c r="C80">
+        <v>-122.6765</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81">
+        <v>41.902799999999999</v>
+      </c>
+      <c r="C81">
+        <v>12.4964</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82">
+        <v>34.052199999999999</v>
+      </c>
+      <c r="C82">
+        <v>-118.2437</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83">
+        <v>40.750500000000002</v>
+      </c>
+      <c r="C83">
+        <v>-73.993399999999994</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>71</v>
+      </c>
+      <c r="B84">
+        <v>33.969499999999996</v>
+      </c>
+      <c r="C84">
+        <v>-118.24339999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85">
+        <v>42.358400000000003</v>
+      </c>
+      <c r="C85">
+        <v>-71.059799999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86">
+        <v>36.852899999999998</v>
+      </c>
+      <c r="C86">
+        <v>-75.977999999999994</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87">
+        <v>38.907200000000003</v>
+      </c>
+      <c r="C87">
+        <v>-77.036900000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88">
+        <v>37.208300000000001</v>
+      </c>
+      <c r="C88">
+        <v>-93.292299999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89">
+        <v>41.053400000000003</v>
+      </c>
+      <c r="C89">
+        <v>-73.538700000000006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90">
+        <v>34.052199999999999</v>
+      </c>
+      <c r="C90">
+        <v>-118.2437</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>72</v>
+      </c>
+      <c r="B91">
+        <v>38.907200000000003</v>
+      </c>
+      <c r="C91">
+        <v>-77.036900000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92">
+        <v>38.912100000000002</v>
+      </c>
+      <c r="C92">
+        <v>-77.022999999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93">
+        <v>36.130099999999999</v>
+      </c>
+      <c r="C93">
+        <v>-80.254900000000006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94">
+        <v>39.114100000000001</v>
+      </c>
+      <c r="C94">
+        <v>-94.627499999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="C95">
+        <v>-74.006</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96">
+        <v>33.4255</v>
+      </c>
+      <c r="C96">
+        <v>-111.94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97">
+        <v>39.103099999999998</v>
+      </c>
+      <c r="C97">
+        <v>-84.512200000000007</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98">
+        <v>43.078699999999998</v>
+      </c>
+      <c r="C98">
+        <v>-85.580200000000005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>73</v>
+      </c>
+      <c r="B99">
+        <v>41.052399999999999</v>
+      </c>
+      <c r="C99">
+        <v>-73.539000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>74</v>
+      </c>
+      <c r="B100">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="C100">
+        <v>-74.006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>75</v>
+      </c>
+      <c r="B101">
+        <v>39.962000000000003</v>
+      </c>
+      <c r="C101">
+        <v>-75.156300000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102">
+        <v>34.052199999999999</v>
+      </c>
+      <c r="C102">
+        <v>-118.2437</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>76</v>
+      </c>
+      <c r="B103">
+        <v>40.854399999999998</v>
+      </c>
+      <c r="C103">
+        <v>-73.126900000000006</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>77</v>
+      </c>
+      <c r="B104">
+        <v>40.743699999999997</v>
+      </c>
+      <c r="C104">
+        <v>-73.991399999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>78</v>
+      </c>
+      <c r="B105">
+        <v>40.750500000000002</v>
+      </c>
+      <c r="C105">
+        <v>-73.993399999999994</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>79</v>
+      </c>
+      <c r="B106">
+        <v>38.897399999999998</v>
+      </c>
+      <c r="C106">
+        <v>-77.036500000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>80</v>
+      </c>
+      <c r="B107">
+        <v>37.209200000000003</v>
+      </c>
+      <c r="C107">
+        <v>-112.9828</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>81</v>
+      </c>
+      <c r="B108">
+        <v>38.8904</v>
+      </c>
+      <c r="C108">
+        <v>-77.031899999999993</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>82</v>
+      </c>
+      <c r="B109">
+        <v>38.886699999999998</v>
+      </c>
+      <c r="C109">
+        <v>-77.041899999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>83</v>
+      </c>
+      <c r="B110">
+        <v>40.758899999999997</v>
+      </c>
+      <c r="C110">
+        <v>-73.985100000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>84</v>
+      </c>
+      <c r="B111">
+        <v>34.429299999999998</v>
+      </c>
+      <c r="C111">
+        <v>-119.7722</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>85</v>
+      </c>
+      <c r="B112">
+        <v>32.832799999999999</v>
+      </c>
+      <c r="C112">
+        <v>-79.843100000000007</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113">
+        <v>-34.603700000000003</v>
+      </c>
+      <c r="C113">
+        <v>-58.381599999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114">
+        <v>-12.0464</v>
+      </c>
+      <c r="C114">
+        <v>-77.0428</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115">
+        <v>-12.062099999999999</v>
+      </c>
+      <c r="C115">
+        <v>-77.036500000000004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116">
+        <v>-12.092599999999999</v>
+      </c>
+      <c r="C116">
+        <v>-77.031899999999993</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117">
+        <v>-12.095599999999999</v>
+      </c>
+      <c r="C117">
+        <v>-77.032700000000006</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118">
+        <v>-12.1142</v>
+      </c>
+      <c r="C118">
+        <v>-77.044499999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119">
+        <v>-12.1143</v>
+      </c>
+      <c r="C119">
+        <v>-77.017300000000006</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120">
+        <v>-12.1172</v>
+      </c>
+      <c r="C120">
+        <v>-77.041799999999995</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121">
+        <v>-12.1267</v>
+      </c>
+      <c r="C121">
+        <v>-76.998999999999995</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122">
+        <v>-12.1218</v>
+      </c>
+      <c r="C122">
+        <v>-77.030699999999996</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123">
+        <v>-12.0771</v>
+      </c>
+      <c r="C123">
+        <v>-77.034199999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>18</v>
+      </c>
+      <c r="B124">
+        <v>-12.0662</v>
+      </c>
+      <c r="C124">
+        <v>-77.069400000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125">
+        <v>-12.065300000000001</v>
+      </c>
+      <c r="C125">
+        <v>-77.0685</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>86</v>
+      </c>
+      <c r="B126">
+        <v>-34.603700000000003</v>
+      </c>
+      <c r="C126">
+        <v>-58.381599999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>16</v>
+      </c>
+      <c r="B127">
+        <v>-12.1187</v>
+      </c>
+      <c r="C127">
+        <v>-77.049499999999995</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128">
+        <v>-12.1326</v>
+      </c>
+      <c r="C128">
+        <v>-77.025199999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129">
+        <v>-12.1684</v>
+      </c>
+      <c r="C129">
+        <v>-76.935599999999994</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>32</v>
+      </c>
+      <c r="B130">
+        <v>-12.0991</v>
+      </c>
+      <c r="C130">
+        <v>-77.027600000000007</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>87</v>
+      </c>
+      <c r="B131">
+        <v>-12.0771</v>
+      </c>
+      <c r="C131">
+        <v>-77.034199999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>25</v>
+      </c>
+      <c r="B132">
+        <v>-12.0528</v>
+      </c>
+      <c r="C132">
+        <v>-77.025199999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>24</v>
+      </c>
+      <c r="B133">
+        <v>-12.107900000000001</v>
+      </c>
+      <c r="C133">
+        <v>-77.018699999999995</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>27</v>
+      </c>
+      <c r="B134">
+        <v>-12.123900000000001</v>
+      </c>
+      <c r="C134">
+        <v>-76.999899999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>28</v>
+      </c>
+      <c r="B135">
+        <v>-12.0524</v>
+      </c>
+      <c r="C135">
+        <v>-77.0715</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>29</v>
+      </c>
+      <c r="B136">
+        <v>-12.0512</v>
+      </c>
+      <c r="C136">
+        <v>-77.080200000000005</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>30</v>
+      </c>
+      <c r="B137">
+        <v>-12.146699999999999</v>
+      </c>
+      <c r="C137">
+        <v>-76.984700000000004</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>31</v>
+      </c>
+      <c r="B138">
+        <v>-12.0564</v>
+      </c>
+      <c r="C138">
+        <v>-77.041399999999996</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>33</v>
+      </c>
+      <c r="B139">
+        <v>-12.122299999999999</v>
+      </c>
+      <c r="C139">
+        <v>-77.010499999999993</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B140">
+        <v>-12.0771</v>
+      </c>
+      <c r="C140">
+        <v>-77.034199999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>26</v>
+      </c>
+      <c r="B141">
+        <v>-12.0608</v>
+      </c>
+      <c r="C141">
+        <v>-77.0441</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142">
+        <v>-12.120699999999999</v>
+      </c>
+      <c r="C142">
+        <v>-77.024600000000007</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>88</v>
+      </c>
+      <c r="B143">
+        <v>-12.0991</v>
+      </c>
+      <c r="C143">
+        <v>-77.027600000000007</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>24</v>
+      </c>
+      <c r="B144">
+        <v>-12.0916</v>
+      </c>
+      <c r="C144">
+        <v>-76.996099999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>18</v>
+      </c>
+      <c r="B145">
+        <v>-12.0562</v>
+      </c>
+      <c r="C145">
+        <v>-77.077600000000004</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>31</v>
+      </c>
+      <c r="B146">
+        <v>50.715000000000003</v>
+      </c>
+      <c r="C146">
+        <v>3.5308999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>89</v>
+      </c>
+      <c r="B147">
+        <v>51.507399999999997</v>
+      </c>
+      <c r="C147">
+        <v>-0.1278</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>90</v>
+      </c>
+      <c r="B148">
+        <v>48.8566</v>
+      </c>
+      <c r="C148">
+        <v>2.3521999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="C149">
+        <v>-74.006</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>91</v>
+      </c>
+      <c r="B150">
+        <v>51.454500000000003</v>
+      </c>
+      <c r="C150">
+        <v>-2.5878999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>92</v>
+      </c>
+      <c r="B151">
+        <v>46.2044</v>
+      </c>
+      <c r="C151">
+        <v>6.1432000000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152">
+        <v>51.507399999999997</v>
+      </c>
+      <c r="C152">
+        <v>-0.1278</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>93</v>
+      </c>
+      <c r="B153">
+        <v>33.749000000000002</v>
+      </c>
+      <c r="C153">
+        <v>-84.388000000000005</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154">
+        <v>47.606200000000001</v>
+      </c>
+      <c r="C154">
+        <v>-122.3321</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155">
+        <v>39.290399999999998</v>
+      </c>
+      <c r="C155">
+        <v>-76.612200000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>9</v>
+      </c>
+      <c r="B156">
+        <v>38.907200000000003</v>
+      </c>
+      <c r="C156">
+        <v>-77.036900000000003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>94</v>
+      </c>
+      <c r="B157">
+        <v>48.8566</v>
+      </c>
+      <c r="C157">
+        <v>2.3521999999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158">
+        <v>45.523099999999999</v>
+      </c>
+      <c r="C158">
+        <v>-122.6765</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>32</v>
+      </c>
+      <c r="B159">
+        <v>51.509900000000002</v>
+      </c>
+      <c r="C159">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>95</v>
+      </c>
+      <c r="B160">
+        <v>33.748899999999999</v>
+      </c>
+      <c r="C160">
+        <v>-84.39</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>17</v>
+      </c>
+      <c r="B161">
+        <v>42.358400000000003</v>
+      </c>
+      <c r="C161">
+        <v>-71.059799999999996</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>3</v>
+      </c>
+      <c r="B162">
+        <v>34.429299999999998</v>
+      </c>
+      <c r="C162">
+        <v>-119.7722</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163">
+        <v>34.052199999999999</v>
+      </c>
+      <c r="C163">
+        <v>-118.2437</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164">
+        <v>41.902799999999999</v>
+      </c>
+      <c r="C164">
+        <v>12.4964</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>96</v>
+      </c>
+      <c r="B165">
+        <v>51.507399999999997</v>
+      </c>
+      <c r="C165">
+        <v>-0.1278</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>97</v>
+      </c>
+      <c r="B166">
+        <v>59.913899999999998</v>
+      </c>
+      <c r="C166">
+        <v>10.7522</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>34</v>
+      </c>
+      <c r="B167">
+        <v>34.052199999999999</v>
+      </c>
+      <c r="C167">
+        <v>-118.2437</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>25</v>
+      </c>
+      <c r="B168">
+        <v>36.130099999999999</v>
+      </c>
+      <c r="C168">
+        <v>-80.254900000000006</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>18</v>
+      </c>
+      <c r="B169">
+        <v>36.852899999999998</v>
+      </c>
+      <c r="C169">
+        <v>-75.977999999999994</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>98</v>
+      </c>
+      <c r="B170">
+        <v>55.676099999999998</v>
+      </c>
+      <c r="C170">
+        <v>12.568300000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>27</v>
+      </c>
+      <c r="B171">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="C171">
+        <v>-74.006</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>33</v>
+      </c>
+      <c r="B172">
+        <v>46.198399999999999</v>
+      </c>
+      <c r="C172">
+        <v>6.1425999999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>29</v>
+      </c>
+      <c r="B173">
+        <v>39.103099999999998</v>
+      </c>
+      <c r="C173">
+        <v>-84.512500000000003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>99</v>
+      </c>
+      <c r="B174">
+        <v>38.907200000000003</v>
+      </c>
+      <c r="C174">
+        <v>-77.036900000000003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>100</v>
+      </c>
+      <c r="B175">
+        <v>51.507399999999997</v>
+      </c>
+      <c r="C175">
+        <v>-0.1278</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>24</v>
+      </c>
+      <c r="B176">
+        <v>38.912100000000002</v>
+      </c>
+      <c r="C176">
+        <v>-77.022999999999996</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>30</v>
+      </c>
+      <c r="B177">
+        <v>43.078699999999998</v>
+      </c>
+      <c r="C177">
+        <v>-85.580200000000005</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>101</v>
+      </c>
+      <c r="B178">
+        <v>51.507399999999997</v>
+      </c>
+      <c r="C178">
+        <v>-0.1278</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>102</v>
+      </c>
+      <c r="B179">
+        <v>51.517600000000002</v>
+      </c>
+      <c r="C179">
+        <v>-0.1062</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>103</v>
+      </c>
+      <c r="B180">
+        <v>35.473399999999998</v>
+      </c>
+      <c r="C180">
+        <v>-97.517099999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>28</v>
+      </c>
+      <c r="B181">
+        <v>33.4255</v>
+      </c>
+      <c r="C181">
+        <v>-111.94</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>104</v>
+      </c>
+      <c r="B182">
+        <v>48.8566</v>
+      </c>
+      <c r="C182">
+        <v>2.3521999999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>23</v>
+      </c>
+      <c r="B183">
+        <v>38.907200000000003</v>
+      </c>
+      <c r="C183">
+        <v>-77.036900000000003</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>105</v>
+      </c>
+      <c r="B184">
+        <v>52.52</v>
+      </c>
+      <c r="C184">
+        <v>13.404999999999999</v>
       </c>
     </row>
   </sheetData>
